--- a/資料/設計/スケジュール/スケジュール表v0.26.xlsx
+++ b/資料/設計/スケジュール/スケジュール表v0.26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40BFFA1F-A28E-4E6F-9008-DD5C1C78F9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA144657-DA16-473E-940E-463C6DE1BDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1764,22 +1764,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2138,11 +2138,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2164,15 +2164,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="64.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-    </row>
-    <row r="2" spans="1:51" ht="54" x14ac:dyDescent="0.45">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+    </row>
+    <row r="2" spans="1:51" ht="36.6" x14ac:dyDescent="0.45">
       <c r="A2" s="68"/>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -3128,7 +3128,7 @@
       </c>
     </row>
     <row r="11" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="108"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="35">
         <v>43999</v>
       </c>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="13" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="107"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="53">
         <v>44000</v>
       </c>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35">
@@ -3592,7 +3592,7 @@
     </row>
     <row r="15" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="108"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="35">
         <v>44000</v>
       </c>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="17" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="107"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="53"/>
       <c r="D17" s="54"/>
       <c r="E17" s="63"/>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="24" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4"/>
-      <c r="B24" s="107"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="53">
         <v>44005</v>
       </c>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="59">
@@ -5024,7 +5024,7 @@
     </row>
     <row r="26" spans="1:51" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4"/>
-      <c r="B26" s="105"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="53">
         <v>44012</v>
       </c>
@@ -5048,7 +5048,9 @@
         <v>1</v>
       </c>
       <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
+      <c r="V26" s="13">
+        <v>1</v>
+      </c>
       <c r="W26" s="13"/>
       <c r="X26" s="23"/>
       <c r="Y26" s="23"/>
@@ -6318,8 +6320,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
